--- a/AE Sakib/Satkhira DIV-I/2022-23/Satkhira-1/New folder/Borelog Condition.xlsx
+++ b/AE Sakib/Satkhira DIV-I/2022-23/Satkhira-1/New folder/Borelog Condition.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dsign_All\AE Sakib\Satkhira DIV-I\2022-23\Satkhira-1\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\AE Sakib\Satkhira DIV-I\2022-23\Satkhira-1\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,18 +394,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -420,183 +425,183 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>80</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>70</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>80</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>100</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>100</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>100</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>60</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>65</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>60</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>28</v>
       </c>
     </row>
